--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_CtyXDBacNam.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_CtyXDBacNam.xlsx
@@ -696,6 +696,15 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -724,15 +733,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1056,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1088,42 +1088,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="63"/>
@@ -1166,57 +1166,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="83" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="74" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1241,23 +1241,23 @@
       <c r="I5" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1312,7 +1312,7 @@
         <v>77</v>
       </c>
       <c r="T6" s="14"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1372,7 +1372,7 @@
         <v>77</v>
       </c>
       <c r="T7" s="14"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1400,7 +1400,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="4"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1428,7 +1428,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="4"/>
       <c r="T9" s="24"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1456,7 +1456,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1484,7 +1484,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="4"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1512,7 +1512,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="71" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1542,7 +1542,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1570,7 +1570,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="4"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1598,7 +1598,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -1626,7 +1626,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2760,11 +2760,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2778,6 +2773,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2820,43 +2820,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -2901,42 +2901,42 @@
       <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="74" t="s">
         <v>62</v>
       </c>
       <c r="S4" s="87" t="s">
@@ -2944,15 +2944,15 @@
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="71" t="s">
+      <c r="W4" s="74" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -2977,24 +2977,24 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
       <c r="S5" s="88"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3020,7 +3020,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="31"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="81" t="s">
+      <c r="V6" s="71" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -3051,7 +3051,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="31"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="82"/>
+      <c r="V7" s="72"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -3080,7 +3080,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="31"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="82"/>
+      <c r="V8" s="72"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3109,7 +3109,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="82"/>
+      <c r="V9" s="72"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="82"/>
+      <c r="V10" s="72"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -3167,7 +3167,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="82"/>
+      <c r="V11" s="72"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -3196,7 +3196,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="81" t="s">
+      <c r="V12" s="71" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -3227,7 +3227,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="82"/>
+      <c r="V13" s="72"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="82"/>
+      <c r="V14" s="72"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="33"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="82"/>
+      <c r="V15" s="72"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -3314,7 +3314,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="33"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="83"/>
+      <c r="V16" s="73"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -5895,6 +5895,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -5905,16 +5915,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
